--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14739920406328</v>
+        <v>21.14739920406344</v>
       </c>
       <c r="C2">
-        <v>21.83574779075802</v>
+        <v>21.83574779075795</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.25849434592234</v>
+        <v>30.25849434592233</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.95731448042029</v>
+        <v>34.95731448042024</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>20.96175830270682</v>
+        <v>20.96175830270687</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57055705968745</v>
+        <v>19.57055705968736</v>
       </c>
       <c r="C3">
-        <v>20.16664283517829</v>
+        <v>20.16664283517846</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.90131529169772</v>
+        <v>27.90131529169774</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.00901134724487</v>
+        <v>33.00901134724499</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.41034306093821</v>
+        <v>19.41034306093824</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56257717124632</v>
+        <v>18.56257717124642</v>
       </c>
       <c r="C4">
-        <v>19.10316599046623</v>
+        <v>19.10316599046606</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.40672808457816</v>
+        <v>26.40672808457825</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.8026023120956</v>
+        <v>31.80260231209584</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.41968027545269</v>
+        <v>18.4196802754527</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.14134485116869</v>
+        <v>18.14134485116871</v>
       </c>
       <c r="C5">
-        <v>18.65953754477797</v>
+        <v>18.65953754477802</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.78480426495543</v>
+        <v>25.78480426495535</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.30828824826163</v>
+        <v>31.30828824826178</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>18.00592695267471</v>
+        <v>18.00592695267474</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07075447195421</v>
+        <v>18.07075447195432</v>
       </c>
       <c r="C6">
-        <v>18.58523975927048</v>
+        <v>18.58523975927054</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.68073096518449</v>
+        <v>25.68073096518453</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.22604405971884</v>
+        <v>31.2260440597189</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.93660380429621</v>
+        <v>17.93660380429629</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.55693926257837</v>
+        <v>18.55693926257857</v>
       </c>
       <c r="C7">
-        <v>19.09722523467363</v>
+        <v>19.09722523467364</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.39839390184932</v>
+        <v>26.39839390184943</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.7959467928869</v>
+        <v>31.79594679288701</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.41414152888557</v>
+        <v>18.4141415288857</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6116632171727</v>
+        <v>20.611663217173</v>
       </c>
       <c r="C8">
-        <v>21.26791317743706</v>
+        <v>21.26791317743707</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.45491376815411</v>
+        <v>29.4549137681542</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.28750646340895</v>
+        <v>34.28750646340892</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>20.43443093468168</v>
+        <v>20.43443093468184</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.35003508032039</v>
+        <v>24.35003508032047</v>
       </c>
       <c r="C9">
-        <v>25.24692680292832</v>
+        <v>25.24692680292813</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.12702458335423</v>
+        <v>35.12702458335415</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39.10942494676783</v>
+        <v>39.10942494676781</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96179834023425</v>
+        <v>26.96179834023433</v>
       </c>
       <c r="C10">
-        <v>28.05109372163587</v>
+        <v>28.05109372163595</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.19224275463134</v>
+        <v>39.19224275463149</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.65415088092745</v>
+        <v>42.65415088092781</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>26.70110515820682</v>
+        <v>26.70110515820692</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.13343263662291</v>
+        <v>28.13343263662303</v>
       </c>
       <c r="C11">
-        <v>29.3160651723635</v>
+        <v>29.3160651723637</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.04866966612514</v>
+        <v>41.04866966612516</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>44.28291622277836</v>
+        <v>44.28291622277877</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.86150743118363</v>
+        <v>27.86150743118376</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.57616491745205</v>
+        <v>28.576164917452</v>
       </c>
       <c r="C12">
-        <v>29.79526174690428</v>
+        <v>29.79526174690421</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.75606330156258</v>
+        <v>41.75606330156245</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.90398574495119</v>
+        <v>44.9039857449508</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>28.30036813246523</v>
+        <v>28.3003681324652</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.48082919532657</v>
+        <v>28.4808291953266</v>
       </c>
       <c r="C13">
-        <v>29.69201748186919</v>
+        <v>29.69201748186926</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.60345209312212</v>
+        <v>41.60345209312206</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44.76999785197802</v>
+        <v>44.7699978519781</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>28.20584844112864</v>
+        <v>28.20584844112867</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.16986568100599</v>
+        <v>28.16986568100594</v>
       </c>
       <c r="C14">
-        <v>29.35547376735591</v>
+        <v>29.35547376735596</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>41.10675592181902</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44.33391232819439</v>
+        <v>44.33391232819444</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.97931842015855</v>
+        <v>27.97931842015852</v>
       </c>
       <c r="C15">
-        <v>29.14941365092671</v>
+        <v>29.14941365092654</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.80320704940785</v>
+        <v>40.80320704940764</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154518</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>44.06742582577285</v>
+        <v>44.06742582577286</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>27.70878957583892</v>
+        <v>27.70878957583888</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8850111678942</v>
+        <v>26.88501116789413</v>
       </c>
       <c r="C16">
-        <v>27.96834601091313</v>
+        <v>27.96834601091309</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.07133066089561</v>
+        <v>39.07133066089555</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.54818656634024</v>
+        <v>42.54818656634021</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>26.62510292786939</v>
+        <v>26.6251029278693</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>26.21037017157778</v>
       </c>
       <c r="C17">
-        <v>27.2421449628976</v>
+        <v>27.24214496289751</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.01281188489228</v>
+        <v>38.01281188489227</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.62153842774091</v>
+        <v>41.62153842774072</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>25.95760982683821</v>
+        <v>25.95760982683814</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82067993475161</v>
+        <v>25.8206799347517</v>
       </c>
       <c r="C18">
-        <v>26.82332462957059</v>
+        <v>26.82332462957053</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.40440143510326</v>
+        <v>37.40440143510321</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41.08993503686264</v>
+        <v>41.08993503686278</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>25.57225117301354</v>
+        <v>25.57225117301361</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.68841591648452</v>
+        <v>25.68841591648451</v>
       </c>
       <c r="C19">
-        <v>26.68128068175078</v>
+        <v>26.68128068175076</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.19838927606453</v>
+        <v>37.19838927606449</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.91013101871525</v>
+        <v>40.91013101871512</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>25.44149057572606</v>
+        <v>25.44149057572605</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.28234898310917</v>
+        <v>26.28234898310921</v>
       </c>
       <c r="C20">
-        <v>27.31955621928812</v>
+        <v>27.31955621928806</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.12542808573613</v>
+        <v>38.12542808573609</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.72002677453389</v>
+        <v>41.72002677453379</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>26.02880468298165</v>
+        <v>26.02880468298171</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.2612152887307</v>
+        <v>28.26121528873051</v>
       </c>
       <c r="C21">
-        <v>29.4543037995782</v>
+        <v>29.45430379957805</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.25249583810157</v>
+        <v>41.2524958381015</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44.46186574767451</v>
+        <v>44.46186574767441</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.98815127286665</v>
+        <v>27.98815127286653</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.55003316610769</v>
+        <v>29.55003316610786</v>
       </c>
       <c r="C22">
-        <v>30.85173012531884</v>
+        <v>30.85173012531879</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.32432447016185</v>
+        <v>43.3243244701619</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46.28028606665844</v>
+        <v>46.28028606665841</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>29.26646773090381</v>
+        <v>29.26646773090388</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.86198911500094</v>
+        <v>28.86198911500099</v>
       </c>
       <c r="C23">
-        <v>30.10498420343262</v>
+        <v>30.10498420343251</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.21455964250013</v>
+        <v>42.21455964250001</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45.30650005368506</v>
+        <v>45.30650005368522</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>28.58380452023345</v>
+        <v>28.58380452023347</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>26.24981316483332</v>
       </c>
       <c r="C24">
-        <v>27.28456281659156</v>
+        <v>27.28456281659165</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.07451408591484</v>
+        <v>38.07451408591488</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.67549678309529</v>
+        <v>41.67549678309555</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36597434198212</v>
+        <v>23.36597434198226</v>
       </c>
       <c r="C25">
-        <v>24.19568554822894</v>
+        <v>24.19568554822896</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.61856690317546</v>
+        <v>33.61856690317549</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.80861749294272</v>
+        <v>37.80861749294294</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23.14810414740051</v>
+        <v>23.14810414740058</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14739920406344</v>
+        <v>21.14739920406328</v>
       </c>
       <c r="C2">
-        <v>21.83574779075795</v>
+        <v>21.83574779075802</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.25849434592233</v>
+        <v>30.25849434592234</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.95731448042024</v>
+        <v>34.95731448042029</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>20.96175830270687</v>
+        <v>20.96175830270682</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57055705968736</v>
+        <v>19.57055705968745</v>
       </c>
       <c r="C3">
-        <v>20.16664283517846</v>
+        <v>20.16664283517829</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.90131529169774</v>
+        <v>27.90131529169772</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.00901134724499</v>
+        <v>33.00901134724487</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.41034306093824</v>
+        <v>19.41034306093821</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56257717124642</v>
+        <v>18.56257717124632</v>
       </c>
       <c r="C4">
-        <v>19.10316599046606</v>
+        <v>19.10316599046623</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.40672808457825</v>
+        <v>26.40672808457816</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.80260231209584</v>
+        <v>31.8026023120956</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.4196802754527</v>
+        <v>18.41968027545269</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.14134485116871</v>
+        <v>18.14134485116869</v>
       </c>
       <c r="C5">
-        <v>18.65953754477802</v>
+        <v>18.65953754477797</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.78480426495535</v>
+        <v>25.78480426495543</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.30828824826178</v>
+        <v>31.30828824826163</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>18.00592695267474</v>
+        <v>18.00592695267471</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07075447195432</v>
+        <v>18.07075447195421</v>
       </c>
       <c r="C6">
-        <v>18.58523975927054</v>
+        <v>18.58523975927048</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.68073096518453</v>
+        <v>25.68073096518449</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.2260440597189</v>
+        <v>31.22604405971884</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.93660380429629</v>
+        <v>17.93660380429621</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.55693926257857</v>
+        <v>18.55693926257837</v>
       </c>
       <c r="C7">
-        <v>19.09722523467364</v>
+        <v>19.09722523467363</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.39839390184943</v>
+        <v>26.39839390184932</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.79594679288701</v>
+        <v>31.7959467928869</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.4141415288857</v>
+        <v>18.41414152888557</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.611663217173</v>
+        <v>20.6116632171727</v>
       </c>
       <c r="C8">
-        <v>21.26791317743707</v>
+        <v>21.26791317743706</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.4549137681542</v>
+        <v>29.45491376815411</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.28750646340892</v>
+        <v>34.28750646340895</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>20.43443093468184</v>
+        <v>20.43443093468168</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.35003508032047</v>
+        <v>24.35003508032039</v>
       </c>
       <c r="C9">
-        <v>25.24692680292813</v>
+        <v>25.24692680292832</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.12702458335415</v>
+        <v>35.12702458335423</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39.10942494676781</v>
+        <v>39.10942494676783</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96179834023433</v>
+        <v>26.96179834023425</v>
       </c>
       <c r="C10">
-        <v>28.05109372163595</v>
+        <v>28.05109372163587</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.19224275463149</v>
+        <v>39.19224275463134</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.65415088092781</v>
+        <v>42.65415088092745</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>26.70110515820692</v>
+        <v>26.70110515820682</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.13343263662303</v>
+        <v>28.13343263662291</v>
       </c>
       <c r="C11">
-        <v>29.3160651723637</v>
+        <v>29.3160651723635</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.04866966612516</v>
+        <v>41.04866966612514</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>44.28291622277877</v>
+        <v>44.28291622277836</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.86150743118376</v>
+        <v>27.86150743118363</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.576164917452</v>
+        <v>28.57616491745205</v>
       </c>
       <c r="C12">
-        <v>29.79526174690421</v>
+        <v>29.79526174690428</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.75606330156245</v>
+        <v>41.75606330156258</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.9039857449508</v>
+        <v>44.90398574495119</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>28.3003681324652</v>
+        <v>28.30036813246523</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.4808291953266</v>
+        <v>28.48082919532657</v>
       </c>
       <c r="C13">
-        <v>29.69201748186926</v>
+        <v>29.69201748186919</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.60345209312206</v>
+        <v>41.60345209312212</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44.7699978519781</v>
+        <v>44.76999785197802</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>28.20584844112867</v>
+        <v>28.20584844112864</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.16986568100594</v>
+        <v>28.16986568100599</v>
       </c>
       <c r="C14">
-        <v>29.35547376735596</v>
+        <v>29.35547376735591</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>41.10675592181902</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503958</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44.33391232819444</v>
+        <v>44.33391232819439</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.97931842015852</v>
+        <v>27.97931842015855</v>
       </c>
       <c r="C15">
-        <v>29.14941365092654</v>
+        <v>29.14941365092671</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.80320704940764</v>
+        <v>40.80320704940785</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>44.06742582577286</v>
+        <v>44.06742582577285</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>27.70878957583888</v>
+        <v>27.70878957583892</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.88501116789413</v>
+        <v>26.8850111678942</v>
       </c>
       <c r="C16">
-        <v>27.96834601091309</v>
+        <v>27.96834601091313</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.07133066089555</v>
+        <v>39.07133066089561</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.54818656634021</v>
+        <v>42.54818656634024</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>26.6251029278693</v>
+        <v>26.62510292786939</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>26.21037017157778</v>
       </c>
       <c r="C17">
-        <v>27.24214496289751</v>
+        <v>27.2421449628976</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.01281188489227</v>
+        <v>38.01281188489228</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.62153842774072</v>
+        <v>41.62153842774091</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>25.95760982683814</v>
+        <v>25.95760982683821</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.8206799347517</v>
+        <v>25.82067993475161</v>
       </c>
       <c r="C18">
-        <v>26.82332462957053</v>
+        <v>26.82332462957059</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.40440143510321</v>
+        <v>37.40440143510326</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41.08993503686278</v>
+        <v>41.08993503686264</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>25.57225117301361</v>
+        <v>25.57225117301354</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.68841591648451</v>
+        <v>25.68841591648452</v>
       </c>
       <c r="C19">
-        <v>26.68128068175076</v>
+        <v>26.68128068175078</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.19838927606449</v>
+        <v>37.19838927606453</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.91013101871512</v>
+        <v>40.91013101871525</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>25.44149057572605</v>
+        <v>25.44149057572606</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.28234898310921</v>
+        <v>26.28234898310917</v>
       </c>
       <c r="C20">
-        <v>27.31955621928806</v>
+        <v>27.31955621928812</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.12542808573609</v>
+        <v>38.12542808573613</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.72002677453379</v>
+        <v>41.72002677453389</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>26.02880468298171</v>
+        <v>26.02880468298165</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.26121528873051</v>
+        <v>28.2612152887307</v>
       </c>
       <c r="C21">
-        <v>29.45430379957805</v>
+        <v>29.4543037995782</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.2524958381015</v>
+        <v>41.25249583810157</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44.46186574767441</v>
+        <v>44.46186574767451</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.98815127286653</v>
+        <v>27.98815127286665</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.55003316610786</v>
+        <v>29.55003316610769</v>
       </c>
       <c r="C22">
-        <v>30.85173012531879</v>
+        <v>30.85173012531884</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.3243244701619</v>
+        <v>43.32432447016185</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46.28028606665841</v>
+        <v>46.28028606665844</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>29.26646773090388</v>
+        <v>29.26646773090381</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.86198911500099</v>
+        <v>28.86198911500094</v>
       </c>
       <c r="C23">
-        <v>30.10498420343251</v>
+        <v>30.10498420343262</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.21455964250001</v>
+        <v>42.21455964250013</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45.30650005368522</v>
+        <v>45.30650005368506</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>28.58380452023347</v>
+        <v>28.58380452023345</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>26.24981316483332</v>
       </c>
       <c r="C24">
-        <v>27.28456281659165</v>
+        <v>27.28456281659156</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.07451408591488</v>
+        <v>38.07451408591484</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.67549678309555</v>
+        <v>41.67549678309529</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36597434198226</v>
+        <v>23.36597434198212</v>
       </c>
       <c r="C25">
-        <v>24.19568554822896</v>
+        <v>24.19568554822894</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.61856690317549</v>
+        <v>33.61856690317546</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.80861749294294</v>
+        <v>37.80861749294272</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23.14810414740058</v>
+        <v>23.14810414740051</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14739920406328</v>
+        <v>20.98804634665194</v>
       </c>
       <c r="C2">
-        <v>21.83574779075802</v>
+        <v>21.66616935076062</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.25849434592234</v>
+        <v>30.15716247454948</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.040467831235103</v>
       </c>
       <c r="H2">
-        <v>34.95731448042029</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35.06716295296724</v>
       </c>
       <c r="J2">
-        <v>20.96175830270682</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.78416108418674</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57055705968745</v>
+        <v>19.41934662786775</v>
       </c>
       <c r="C3">
-        <v>20.16664283517829</v>
+        <v>20.00967774649805</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.90131529169772</v>
+        <v>27.81080028250434</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.056101278231139</v>
       </c>
       <c r="H3">
-        <v>33.00901134724487</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.15150243862433</v>
       </c>
       <c r="J3">
-        <v>19.41034306093821</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.23980383977202</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56257717124632</v>
+        <v>18.41644575554879</v>
       </c>
       <c r="C4">
-        <v>19.10316599046623</v>
+        <v>18.95429047392905</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.40672808457816</v>
+        <v>26.32265387866653</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.065750912325751</v>
       </c>
       <c r="H4">
-        <v>31.8026023120956</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>31.96647675843015</v>
       </c>
       <c r="J4">
-        <v>18.41968027545269</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.25339092198158</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.14134485116869</v>
+        <v>17.99731359063323</v>
       </c>
       <c r="C5">
-        <v>18.65953754477797</v>
+        <v>18.51406439405608</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.78480426495543</v>
+        <v>25.70332394965205</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.069704767294758</v>
       </c>
       <c r="H5">
-        <v>31.30828824826163</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>31.48122743661139</v>
       </c>
       <c r="J5">
-        <v>18.00592695267471</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.84135522610313</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07075447195421</v>
+        <v>17.92707405994977</v>
       </c>
       <c r="C6">
-        <v>18.58523975927048</v>
+        <v>18.44033851625908</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.68073096518449</v>
+        <v>25.59968000515423</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.070362839028508</v>
       </c>
       <c r="H6">
-        <v>31.22604405971884</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>31.40050991666331</v>
       </c>
       <c r="J6">
-        <v>17.93660380429621</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.77231658758161</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.55693926257837</v>
+        <v>18.41083603426516</v>
       </c>
       <c r="C7">
-        <v>19.09722523467363</v>
+        <v>18.94839515011889</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.39839390184932</v>
+        <v>26.31435477957944</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.065804137342866</v>
       </c>
       <c r="H7">
-        <v>31.7959467928869</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>31.95994205517291</v>
       </c>
       <c r="J7">
-        <v>18.41414152888557</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.24787539009148</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6116632171727</v>
+        <v>20.45510806771617</v>
       </c>
       <c r="C8">
-        <v>21.26791317743706</v>
+        <v>21.10262384681965</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.45491376815411</v>
+        <v>29.35736646923895</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.045853443203498</v>
       </c>
       <c r="H8">
-        <v>34.28750646340895</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.4083420153078</v>
       </c>
       <c r="J8">
-        <v>20.43443093468168</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.25928954038115</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.35003508032039</v>
+        <v>24.1730477666208</v>
       </c>
       <c r="C9">
-        <v>25.24692680292832</v>
+        <v>25.05118151824463</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.12702458335423</v>
+        <v>35.00021336510762</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.006655071154088</v>
       </c>
       <c r="H9">
-        <v>39.10942494676783</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>39.15530604247536</v>
       </c>
       <c r="J9">
-        <v>24.11925004970193</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.925586805206</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96179834023425</v>
+        <v>26.76879298387457</v>
       </c>
       <c r="C10">
-        <v>28.05109372163587</v>
+        <v>27.83255745400133</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.19224275463134</v>
+        <v>39.03988370412146</v>
       </c>
       <c r="F10">
         <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.976979396571232</v>
       </c>
       <c r="H10">
-        <v>42.65415088092745</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.64894318517175</v>
       </c>
       <c r="J10">
-        <v>26.70110515820682</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.49220833585476</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.13343263662291</v>
+        <v>27.93256586900099</v>
       </c>
       <c r="C11">
-        <v>29.3160651723635</v>
+        <v>29.08659254567257</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.04866966612514</v>
+        <v>40.88294959398178</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.963036001707885</v>
       </c>
       <c r="H11">
-        <v>44.28291622277836</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>44.25467080116082</v>
       </c>
       <c r="J11">
-        <v>27.86150743118363</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.64497881215481</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.57616491745205</v>
+        <v>28.37219324480757</v>
       </c>
       <c r="C12">
-        <v>29.79526174690428</v>
+        <v>29.56150717378306</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.75606330156258</v>
+        <v>41.58491951673219</v>
       </c>
       <c r="F12">
         <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.957663520158256</v>
       </c>
       <c r="H12">
-        <v>44.90398574495119</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.86696391313263</v>
       </c>
       <c r="J12">
-        <v>28.30036813246523</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28.08080278763852</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.48082919532657</v>
+        <v>28.27753283791927</v>
       </c>
       <c r="C13">
-        <v>29.69201748186919</v>
+        <v>29.45919254588069</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.60345209312212</v>
+        <v>41.43349497776646</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.958825237091157</v>
       </c>
       <c r="H13">
-        <v>44.76999785197802</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>44.73487015443116</v>
       </c>
       <c r="J13">
-        <v>28.20584844112864</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>27.98694458125059</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.16986568100599</v>
+        <v>27.96874636221285</v>
       </c>
       <c r="C14">
-        <v>29.35547376735591</v>
+        <v>29.12565209973384</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.10675592181902</v>
+        <v>40.94059777317911</v>
       </c>
       <c r="F14">
         <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.962596050372745</v>
       </c>
       <c r="H14">
-        <v>44.33391232819439</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>44.30494649784415</v>
       </c>
       <c r="J14">
-        <v>27.89761402325989</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27.68083884471141</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.97931842015855</v>
+        <v>27.77951427643459</v>
       </c>
       <c r="C15">
-        <v>29.14941365092671</v>
+        <v>28.92141112926455</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.80320704940785</v>
+        <v>40.63932420513431</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.964892756746208</v>
       </c>
       <c r="H15">
-        <v>44.06742582577285</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>44.04222453033834</v>
       </c>
       <c r="J15">
-        <v>27.70878957583892</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>27.49329747656679</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8850111678942</v>
+        <v>26.69250452828498</v>
       </c>
       <c r="C16">
-        <v>27.96834601091313</v>
+        <v>27.75050847498763</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.07133066089561</v>
+        <v>38.91980110592073</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.97787943357441</v>
       </c>
       <c r="H16">
-        <v>42.54818656634024</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.54448219264836</v>
       </c>
       <c r="J16">
-        <v>26.62510292786939</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.416687237203</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.21037017157778</v>
+        <v>26.02216604254656</v>
       </c>
       <c r="C17">
-        <v>27.2421449628976</v>
+        <v>27.03036219092276</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.01281188489228</v>
+        <v>37.86834809771788</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.985714699542682</v>
       </c>
       <c r="H17">
-        <v>41.62153842774091</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.63102416100227</v>
       </c>
       <c r="J17">
-        <v>25.95760982683821</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.75332837612699</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82067993475161</v>
+        <v>25.63489989939583</v>
       </c>
       <c r="C18">
-        <v>26.82332462957059</v>
+        <v>26.61497535598126</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.40440143510326</v>
+        <v>37.26384694079074</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.990181663983768</v>
       </c>
       <c r="H18">
-        <v>41.08993503686264</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>41.10703268155147</v>
       </c>
       <c r="J18">
-        <v>25.57225117301354</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>25.37028513254703</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.68841591648452</v>
+        <v>25.50344905827466</v>
       </c>
       <c r="C19">
-        <v>26.68128068175078</v>
+        <v>26.47408696846815</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.19838927606453</v>
+        <v>37.05913456536474</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.991688035083657</v>
       </c>
       <c r="H19">
-        <v>40.91013101871525</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.92981231239563</v>
       </c>
       <c r="J19">
-        <v>25.44149057572606</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>25.24029886979726</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.28234898310917</v>
+        <v>26.09369235431654</v>
       </c>
       <c r="C20">
-        <v>27.31955621928812</v>
+        <v>27.10713434128002</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.12542808573613</v>
+        <v>37.98022882846657</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.984884910361311</v>
       </c>
       <c r="H20">
-        <v>41.72002677453389</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.72810627923866</v>
       </c>
       <c r="J20">
-        <v>26.02880468298165</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.82408987707777</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.2612152887307</v>
+        <v>28.0594604485384</v>
       </c>
       <c r="C21">
-        <v>29.4543037995782</v>
+        <v>29.22360439911573</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.25249583810157</v>
+        <v>41.08523288968901</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.961491248988639</v>
       </c>
       <c r="H21">
-        <v>44.46186574767451</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>44.43109225922518</v>
       </c>
       <c r="J21">
-        <v>27.98815127286665</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27.77075529485603</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.55003316610769</v>
+        <v>29.33893530071183</v>
       </c>
       <c r="C22">
-        <v>30.85173012531884</v>
+        <v>30.60821911511955</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.32432447016185</v>
+        <v>43.14042284363946</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.945643436693312</v>
       </c>
       <c r="H22">
-        <v>46.28028606665844</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>46.22374996594028</v>
       </c>
       <c r="J22">
-        <v>29.26646773090381</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>29.03989085186855</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.86198911500094</v>
+        <v>28.6559698285676</v>
       </c>
       <c r="C23">
-        <v>30.10498420343262</v>
+        <v>29.86841642591618</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.21455964250013</v>
+        <v>42.03979403761471</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.954164644467173</v>
       </c>
       <c r="H23">
-        <v>45.30650005368506</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>45.26378377848057</v>
       </c>
       <c r="J23">
-        <v>28.58380452023345</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.36223023613108</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.24981316483332</v>
+        <v>26.06136126215517</v>
       </c>
       <c r="C24">
-        <v>27.28456281659156</v>
+        <v>27.07243002217847</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.07451408591484</v>
+        <v>37.92964780312543</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.985260173232396</v>
       </c>
       <c r="H24">
-        <v>41.67549678309529</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.68421194849829</v>
       </c>
       <c r="J24">
-        <v>25.99662260178907</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.79210390391676</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36597434198212</v>
+        <v>23.19459845382853</v>
       </c>
       <c r="C25">
-        <v>24.19568554822894</v>
+        <v>24.00812336113679</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.61856690317546</v>
+        <v>33.50016639297569</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.017342479675158</v>
       </c>
       <c r="H25">
-        <v>37.80861749294272</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.87390233860137</v>
       </c>
       <c r="J25">
-        <v>23.14810414740051</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.95964898562001</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>14.06178035639261</v>
+      </c>
+      <c r="C2">
+        <v>8.177709774227299</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>29.37867986216885</v>
+      </c>
       <c r="F2">
         <v>30.27884324296193</v>
+      </c>
+      <c r="G2">
+        <v>2.087860253907688</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>12.60432584653336</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>13.71571583675412</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>13.15118104716638</v>
+      </c>
+      <c r="C3">
+        <v>7.811399549965563</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>27.2542031466532</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.093445720045061</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>11.89243627401309</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>13.90211064473725</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>12.56070816410215</v>
+      </c>
+      <c r="C4">
+        <v>7.57802041941508</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>25.88675202759345</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.096959460879142</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>11.43378302058131</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>14.03514561923705</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>12.31216963448038</v>
+      </c>
+      <c r="C5">
+        <v>7.480856747637028</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>25.31335736875767</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
+      </c>
+      <c r="G5">
+        <v>2.098413476017297</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>11.24151106215876</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>14.09371922615799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>12.27042119802606</v>
+      </c>
+      <c r="C6">
+        <v>7.464600660049447</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25.21716187151348</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.1201820470107</v>
+      </c>
+      <c r="G6">
+        <v>2.098656277903744</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>11.20926222118471</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>14.10369999137577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>12.55738837141172</v>
+      </c>
+      <c r="C7">
+        <v>7.576718275604859</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>25.87908479323027</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617556</v>
+      </c>
+      <c r="G7">
+        <v>2.096978979384947</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>11.43121162094207</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>14.03591830389033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>13.75429380212831</v>
+      </c>
+      <c r="C8">
+        <v>8.053199266879192</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>28.65905128740649</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
+      </c>
+      <c r="G8">
+        <v>2.089769232536486</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>12.36336395841229</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>13.77593116956584</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>15.85440820757597</v>
+      </c>
+      <c r="C9">
+        <v>8.918123167850998</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>33.62522383899888</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
+      </c>
+      <c r="G9">
+        <v>2.076252678477608</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>14.01904473185367</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>13.42884511563505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>17.24989316366972</v>
+      </c>
+      <c r="C10">
+        <v>9.509076368687589</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>37.00019708939462</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847217</v>
+      </c>
+      <c r="G10">
+        <v>2.066630000896284</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>15.12998446779269</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.29581090140463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>17.85353882973093</v>
+      </c>
+      <c r="C11">
+        <v>9.768032389373797</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>38.48163629716257</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
+      </c>
+      <c r="G11">
+        <v>2.062301647328241</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>15.6126754578071</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>13.26718234404527</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>18.07771834139491</v>
+      </c>
+      <c r="C12">
+        <v>9.864668093452028</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>39.0353874357241</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>2.060668035621982</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>15.79222867711047</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>13.26140443441355</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>18.02963205937843</v>
+      </c>
+      <c r="C13">
+        <v>9.843919241361126</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>38.91644044643077</v>
+      </c>
       <c r="F13">
         <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>2.061019648605555</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>15.7537017887366</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>13.26241581187606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>17.87207010501168</v>
+      </c>
+      <c r="C14">
+        <v>9.776011229584375</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>38.52733568898303</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
+      </c>
+      <c r="G14">
+        <v>2.062167149888113</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>15.62751195601488</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>13.26660271321875</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>17.77498713195658</v>
+      </c>
+      <c r="C15">
+        <v>9.734229993829095</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>38.28807121163525</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.96319309123409</v>
+      </c>
+      <c r="G15">
+        <v>2.062870685516879</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>15.54979731587431</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>13.26984119429396</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>17.20982246551722</v>
+      </c>
+      <c r="C16">
+        <v>9.49195361420024</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>36.90233991090209</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>37.63463543028809</v>
+      </c>
+      <c r="G16">
+        <v>2.066913722040844</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>15.09798537773155</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.29836388020157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>16.85517960900185</v>
+      </c>
+      <c r="C17">
+        <v>9.340789192676635</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>36.03878869189703</v>
+      </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>2.069405462143315</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>14.8150218538625</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.32436226162055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>16.64825990237678</v>
+      </c>
+      <c r="C18">
+        <v>9.252913949330535</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>35.53699460243639</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>36.31710943239618</v>
+      </c>
+      <c r="G18">
+        <v>2.070843367853881</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>14.65013129495279</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>13.34228743510391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>16.57769362900663</v>
+      </c>
+      <c r="C19">
+        <v>9.223001608703141</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>35.36620488970264</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494150058</v>
+      </c>
+      <c r="G19">
+        <v>2.071331075567793</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>14.59393435806223</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>13.34885276085181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>16.893235561474</v>
+      </c>
+      <c r="C20">
+        <v>9.356977173912581</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>36.13123976744863</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731404</v>
+      </c>
+      <c r="G20">
+        <v>2.069139734515807</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>14.84536483886024</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.32128374833393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>17.9184688746593</v>
+      </c>
+      <c r="C21">
+        <v>9.795996137426178</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>38.64181730079572</v>
+      </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>2.061829966949238</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>15.66466436836268</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>13.26523160245562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>18.56286489520637</v>
+      </c>
+      <c r="C22">
+        <v>10.07461701544545</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>40.24071553236912</v>
+      </c>
       <c r="F22">
         <v>40.81974568026789</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>2.057083454807838</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>16.18131137705963</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>13.25834497679783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>18.22125941127627</v>
+      </c>
+      <c r="C23">
+        <v>9.926670862808589</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>39.39100556478646</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038419</v>
+      </c>
+      <c r="G23">
+        <v>2.059614513826685</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>15.90727546576715</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>13.25913587722463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>16.87603991112763</v>
+      </c>
+      <c r="C24">
+        <v>9.349661604637022</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>36.08945926608162</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.8512191057543</v>
+      </c>
+      <c r="G24">
+        <v>2.069259853126682</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>14.83165366443503</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.32266630321643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>15.31242274816936</v>
+      </c>
+      <c r="C25">
+        <v>8.69184276239173</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>32.33152617753217</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>2.079849665431662</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>13.58968768883236</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>13.50306733411716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.06178035639261</v>
+        <v>9.573320881146669</v>
       </c>
       <c r="C2">
-        <v>8.177709774227299</v>
+        <v>6.069437374781471</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.37867986216885</v>
+        <v>16.45082476823774</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.087860253907688</v>
+        <v>3.630909019046887</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.60432584653336</v>
+        <v>8.733770021307958</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.71571583675412</v>
+        <v>21.25343720909476</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15118104716638</v>
+        <v>9.226402674923111</v>
       </c>
       <c r="C3">
-        <v>7.811399549965563</v>
+        <v>5.906420148546537</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.2542031466532</v>
+        <v>15.52155248879117</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.093445720045061</v>
+        <v>3.632843367313531</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.89243627401309</v>
+        <v>8.481627826679846</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.90211064473725</v>
+        <v>21.37703864509586</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.56070816410215</v>
+        <v>9.00793307964571</v>
       </c>
       <c r="C4">
-        <v>7.57802041941508</v>
+        <v>5.803314188576942</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.88675202759345</v>
+        <v>14.92639962209146</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.096959460879142</v>
+        <v>3.634091431664017</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.43378302058131</v>
+        <v>8.323990692138057</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.03514561923705</v>
+        <v>21.45872936310025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31216963448038</v>
+        <v>8.917669344557927</v>
       </c>
       <c r="C5">
-        <v>7.480856747637028</v>
+        <v>5.760581508676516</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.31335736875767</v>
+        <v>14.67796088590094</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.098413476017297</v>
+        <v>3.634615259677332</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.24151106215876</v>
+        <v>8.259137829946045</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.09371922615799</v>
+        <v>21.49347214487979</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.27042119802606</v>
+        <v>8.90261077481008</v>
       </c>
       <c r="C6">
-        <v>7.464600660049447</v>
+        <v>5.753443796061382</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.21716187151348</v>
+        <v>14.63635988220539</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.098656277903744</v>
+        <v>3.634703162401581</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.20926222118471</v>
+        <v>8.248334845727094</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.10369999137577</v>
+        <v>21.4993287785529</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.55738837141172</v>
+        <v>9.006720562707326</v>
       </c>
       <c r="C7">
-        <v>7.576718275604859</v>
+        <v>5.802740723423362</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.87908479323027</v>
+        <v>14.92307261963871</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.096978979384947</v>
+        <v>3.634098434450983</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.43121162094207</v>
+        <v>8.32311842168609</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.03591830389033</v>
+        <v>21.45919203931047</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.75429380212831</v>
+        <v>9.454915107218502</v>
       </c>
       <c r="C8">
-        <v>8.053199266879192</v>
+        <v>6.013878206343492</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.65905128740649</v>
+        <v>16.13565920298397</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.089769232536486</v>
+        <v>3.631563484578738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.36336395841229</v>
+        <v>8.647471792028469</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.77593116956584</v>
+        <v>21.29484836290758</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.85440820757597</v>
+        <v>10.28513461526957</v>
       </c>
       <c r="C9">
-        <v>8.918123167850998</v>
+        <v>6.402353382730895</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.62522383899888</v>
+        <v>18.37948890688392</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.076252678477608</v>
+        <v>3.627069057333558</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.01904473185367</v>
+        <v>9.257307427177839</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.42884511563505</v>
+        <v>21.01881125754996</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.24989316366972</v>
+        <v>10.85914066461815</v>
       </c>
       <c r="C10">
-        <v>9.509076368687589</v>
+        <v>6.670178003545413</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.00019708939462</v>
+        <v>20.01175326496732</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.066630000896284</v>
+        <v>3.624054204228157</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.12998446779269</v>
+        <v>9.684702962208888</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.29581090140463</v>
+        <v>20.84451371343301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.85353882973093</v>
+        <v>11.11137926513759</v>
       </c>
       <c r="C11">
-        <v>9.768032389373797</v>
+        <v>6.787836018630869</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.48163629716257</v>
+        <v>20.71227790280468</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.062301647328241</v>
+        <v>3.622744318217672</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.6126754578071</v>
+        <v>9.873800923481076</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.26718234404527</v>
+        <v>20.77148172374639</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.07771834139491</v>
+        <v>11.20554288335132</v>
       </c>
       <c r="C12">
-        <v>9.864668093452028</v>
+        <v>6.831762894332279</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.0353874357241</v>
+        <v>20.97154488033283</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.060668035621982</v>
+        <v>3.622257100142191</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.79222867711047</v>
+        <v>9.944579401789088</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.26140443441355</v>
+        <v>20.74473224699331</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.02963205937843</v>
+        <v>11.18532438615326</v>
       </c>
       <c r="C13">
-        <v>9.843919241361126</v>
+        <v>6.822330773085331</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>38.91644044643077</v>
+        <v>20.91597371328208</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.061019648605555</v>
+        <v>3.622361640335531</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.7537017887366</v>
+        <v>9.929373786240269</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.26241581187606</v>
+        <v>20.7504528204653</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.87207010501168</v>
+        <v>11.11915369693935</v>
       </c>
       <c r="C14">
-        <v>9.776011229584375</v>
+        <v>6.7914626337152</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.52733568898303</v>
+        <v>20.73372814329073</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.062167149888113</v>
+        <v>3.622704058259583</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.62751195601488</v>
+        <v>9.879640859972399</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.26660271321875</v>
+        <v>20.76926283032824</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.77498713195658</v>
+        <v>11.07844384188745</v>
       </c>
       <c r="C15">
-        <v>9.734229993829095</v>
+        <v>6.772472510531233</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.28807121163525</v>
+        <v>20.62131622543686</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.062870685516879</v>
+        <v>3.622914944660165</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.54979731587431</v>
+        <v>9.84906831186675</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.26984119429396</v>
+        <v>20.78090270502018</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.20982246551722</v>
+        <v>10.84247080578436</v>
       </c>
       <c r="C16">
-        <v>9.49195361420024</v>
+        <v>6.662402354090066</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>36.90233991090209</v>
+        <v>19.96513001069957</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.066913722040844</v>
+        <v>3.624141043459503</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.09798537773155</v>
+        <v>9.672232264109807</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.29836388020157</v>
+        <v>20.84941297607295</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.85517960900185</v>
+        <v>10.69537686643565</v>
       </c>
       <c r="C17">
-        <v>9.340789192676635</v>
+        <v>6.593787995493818</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.03878869189703</v>
+        <v>19.55184730954957</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.069405462143315</v>
+        <v>3.624908954269361</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.8150218538625</v>
+        <v>9.562338085608499</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.32436226162055</v>
+        <v>20.89304887119923</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.64825990237678</v>
+        <v>10.6099404521799</v>
       </c>
       <c r="C18">
-        <v>9.252913949330535</v>
+        <v>6.553931134504262</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.53699460243639</v>
+        <v>19.31018276877987</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.070843367853881</v>
+        <v>3.625356435890069</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.65013129495279</v>
+        <v>9.498631859131049</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.34228743510391</v>
+        <v>20.91873561526581</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.57769362900663</v>
+        <v>10.58087278001999</v>
       </c>
       <c r="C19">
-        <v>9.223001608703141</v>
+        <v>6.540369880951618</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.36620488970264</v>
+        <v>19.22767897404509</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.071331075567793</v>
+        <v>3.625508943058352</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.59393435806223</v>
+        <v>9.476978513689636</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.34885276085181</v>
+        <v>20.92753359239071</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.893235561474</v>
+        <v>10.71112195068495</v>
       </c>
       <c r="C20">
-        <v>9.356977173912581</v>
+        <v>6.601132854833964</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.13123976744863</v>
+        <v>19.59625107267533</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.069139734515807</v>
+        <v>3.624826608964726</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.84536483886024</v>
+        <v>9.574088525428138</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.32128374833393</v>
+        <v>20.88834279862811</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.9184688746593</v>
+        <v>11.13862693353154</v>
       </c>
       <c r="C21">
-        <v>9.795996137426178</v>
+        <v>6.800546591204827</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.64181730079572</v>
+        <v>20.78742083661344</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.061829966949238</v>
+        <v>3.622603243172413</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.66466436836268</v>
+        <v>9.894271589674917</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.26523160245562</v>
+        <v>20.76371322995483</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.56286489520637</v>
+        <v>11.4101071075177</v>
       </c>
       <c r="C22">
-        <v>10.07461701544545</v>
+        <v>6.927205836542033</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.24071553236912</v>
+        <v>21.53092387598497</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.057083454807838</v>
+        <v>3.621201458571746</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.18131137705963</v>
+        <v>10.09867397227307</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.25834497679783</v>
+        <v>20.68754541631431</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.22125941127627</v>
+        <v>11.26596048341411</v>
       </c>
       <c r="C23">
-        <v>9.926670862808589</v>
+        <v>6.859949386043132</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.39100556478646</v>
+        <v>21.1372934906544</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.059614513826685</v>
+        <v>3.621944938208321</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.90727546576715</v>
+        <v>9.990044036539166</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.25913587722463</v>
+        <v>20.72771189830684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.87603991112763</v>
+        <v>10.70400630246914</v>
       </c>
       <c r="C24">
-        <v>9.349661604637022</v>
+        <v>6.597813517568812</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.08945926608162</v>
+        <v>19.57618878926483</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.069259853126682</v>
+        <v>3.624863818584286</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.83165366443503</v>
+        <v>9.568777786961375</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.32266630321643</v>
+        <v>20.89046854579862</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31242274816936</v>
+        <v>10.06644666523732</v>
       </c>
       <c r="C25">
-        <v>8.69184276239173</v>
+        <v>6.300216107374585</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.33152617753217</v>
+        <v>17.74414544876901</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.079849665431662</v>
+        <v>3.628234242450706</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.58968768883236</v>
+        <v>9.095645975827601</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.50306733411716</v>
+        <v>21.08850390262307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.573320881146669</v>
+        <v>14.06178035639263</v>
       </c>
       <c r="C2">
-        <v>6.069437374781471</v>
+        <v>8.177709774227299</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.45082476823774</v>
+        <v>29.37867986216884</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.630909019046887</v>
+        <v>2.087860253907688</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.733770021307958</v>
+        <v>12.60432584653337</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.25343720909476</v>
+        <v>13.71571583675401</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.226402674923111</v>
+        <v>13.15118104716645</v>
       </c>
       <c r="C3">
-        <v>5.906420148546537</v>
+        <v>7.811399549965374</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52155248879117</v>
+        <v>27.2542031466532</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.632843367313531</v>
+        <v>2.093445720044792</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.481627826679846</v>
+        <v>11.89243627401311</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.37703864509586</v>
+        <v>13.90211064473713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.00793307964571</v>
+        <v>12.56070816410224</v>
       </c>
       <c r="C4">
-        <v>5.803314188576942</v>
+        <v>7.578020419415184</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.92639962209146</v>
+        <v>25.8867520275934</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.634091431664017</v>
+        <v>2.096959460879009</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.323990692138057</v>
+        <v>11.43378302058143</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.45872936310025</v>
+        <v>14.03514561923681</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.917669344557927</v>
+        <v>12.31216963448032</v>
       </c>
       <c r="C5">
-        <v>5.760581508676516</v>
+        <v>7.480856747637303</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.67796088590094</v>
+        <v>25.31335736875765</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.634615259677332</v>
+        <v>2.098413476017431</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.259137829946045</v>
+        <v>11.24151106215876</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.49347214487979</v>
+        <v>14.093719226158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.90261077481008</v>
+        <v>12.27042119802606</v>
       </c>
       <c r="C6">
-        <v>5.753443796061382</v>
+        <v>7.464600660049242</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.63635988220539</v>
+        <v>25.21716187151356</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.634703162401581</v>
+        <v>2.098656277903611</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.248334845727094</v>
+        <v>11.20926222118469</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.4993287785529</v>
+        <v>14.10369999137599</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.006720562707326</v>
+        <v>12.55738837141174</v>
       </c>
       <c r="C7">
-        <v>5.802740723423362</v>
+        <v>7.576718275604858</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.92307261963871</v>
+        <v>25.87908479323026</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.634098434450983</v>
+        <v>2.096978979385215</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.32311842168609</v>
+        <v>11.43121162094211</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.45919203931047</v>
+        <v>14.03591830389017</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.454915107218502</v>
+        <v>13.75429380212836</v>
       </c>
       <c r="C8">
-        <v>6.013878206343492</v>
+        <v>8.053199266879179</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.13565920298397</v>
+        <v>28.65905128740648</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.631563484578738</v>
+        <v>2.089769232536487</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.647471792028469</v>
+        <v>12.36336395841231</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.29484836290758</v>
+        <v>13.77593116956576</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.28513461526957</v>
+        <v>15.85440820757599</v>
       </c>
       <c r="C9">
-        <v>6.402353382730895</v>
+        <v>8.918123167850798</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.37948890688392</v>
+        <v>33.62522383899887</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.627069057333558</v>
+        <v>2.076252678477473</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.257307427177839</v>
+        <v>14.01904473185361</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.01881125754996</v>
+        <v>13.42884511563507</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.85914066461815</v>
+        <v>17.24989316366972</v>
       </c>
       <c r="C10">
-        <v>6.670178003545413</v>
+        <v>9.509076368687561</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.01175326496732</v>
+        <v>37.00019708939468</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.624054204228157</v>
+        <v>2.066630000896019</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.684702962208888</v>
+        <v>15.12998446779268</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.84451371343301</v>
+        <v>13.29581090140466</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.11137926513759</v>
+        <v>17.85353882973098</v>
       </c>
       <c r="C11">
-        <v>6.787836018630869</v>
+        <v>9.768032389373811</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.71227790280468</v>
+        <v>38.4816362971626</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.622744318217672</v>
+        <v>2.062301647328108</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.873800923481076</v>
+        <v>15.61267545780716</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.77148172374639</v>
+        <v>13.26718234404517</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.20554288335132</v>
+        <v>18.077718341395</v>
       </c>
       <c r="C12">
-        <v>6.831762894332279</v>
+        <v>9.864668093451941</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.97154488033283</v>
+        <v>39.03538743572415</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.622257100142191</v>
+        <v>2.060668035622248</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.944579401789088</v>
+        <v>15.79222867711055</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.74473224699331</v>
+        <v>13.26140443441345</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.18532438615326</v>
+        <v>18.02963205937842</v>
       </c>
       <c r="C13">
-        <v>6.822330773085331</v>
+        <v>9.843919241360977</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.91597371328208</v>
+        <v>38.9164404464307</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.622361640335531</v>
+        <v>2.061019648605418</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.929373786240269</v>
+        <v>15.75370178873659</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.7504528204653</v>
+        <v>13.26241581187601</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.11915369693935</v>
+        <v>17.8720701050117</v>
       </c>
       <c r="C14">
-        <v>6.7914626337152</v>
+        <v>9.776011229584579</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.73372814329073</v>
+        <v>38.52733568898311</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.622704058259583</v>
+        <v>2.062167149888113</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.879640859972399</v>
+        <v>15.62751195601498</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.76926283032824</v>
+        <v>13.26660271321865</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.07844384188745</v>
+        <v>17.77498713195666</v>
       </c>
       <c r="C15">
-        <v>6.772472510531233</v>
+        <v>9.73422999382908</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.62131622543686</v>
+        <v>38.28807121163522</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.622914944660165</v>
+        <v>2.062870685517147</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.84906831186675</v>
+        <v>15.54979731587438</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.78090270502018</v>
+        <v>13.26984119429382</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.84247080578436</v>
+        <v>17.2098224655172</v>
       </c>
       <c r="C16">
-        <v>6.662402354090066</v>
+        <v>9.491953614200343</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.96513001069957</v>
+        <v>36.90233991090207</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.624141043459503</v>
+        <v>2.06691372204111</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.672232264109807</v>
+        <v>15.09798537773155</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.84941297607295</v>
+        <v>13.29836388020135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.69537686643565</v>
+        <v>16.85517960900185</v>
       </c>
       <c r="C17">
-        <v>6.593787995493818</v>
+        <v>9.340789192676478</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.55184730954957</v>
+        <v>36.03878869189704</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.624908954269361</v>
+        <v>2.069405462143182</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.562338085608499</v>
+        <v>14.81502185386244</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.89304887119923</v>
+        <v>13.32436226162057</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.6099404521799</v>
+        <v>16.6482599023768</v>
       </c>
       <c r="C18">
-        <v>6.553931134504262</v>
+        <v>9.252913949330443</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.31018276877987</v>
+        <v>35.53699460243631</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.625356435890069</v>
+        <v>2.070843367853747</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.498631859131049</v>
+        <v>14.65013129495275</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.91873561526581</v>
+        <v>13.34228743510391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.58087278001999</v>
+        <v>16.57769362900665</v>
       </c>
       <c r="C19">
-        <v>6.540369880951618</v>
+        <v>9.223001608703195</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.22767897404509</v>
+        <v>35.36620488970263</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.625508943058352</v>
+        <v>2.071331075567928</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.476978513689636</v>
+        <v>14.59393435806224</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.92753359239071</v>
+        <v>13.34885276085178</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.71112195068495</v>
+        <v>16.89323556147403</v>
       </c>
       <c r="C20">
-        <v>6.601132854833964</v>
+        <v>9.356977173912423</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.59625107267533</v>
+        <v>36.13123976744861</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.624826608964726</v>
+        <v>2.069139734515942</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.574088525428138</v>
+        <v>14.8453648388602</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.88834279862811</v>
+        <v>13.32128374833405</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.13862693353154</v>
+        <v>17.91846887465923</v>
       </c>
       <c r="C21">
-        <v>6.800546591204827</v>
+        <v>9.795996137426407</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.78742083661344</v>
+        <v>38.64181730079569</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.622603243172413</v>
+        <v>2.061829966949238</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.894271589674917</v>
+        <v>15.66466436836271</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.76371322995483</v>
+        <v>13.26523160245562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.4101071075177</v>
+        <v>18.56286489520643</v>
       </c>
       <c r="C22">
-        <v>6.927205836542033</v>
+        <v>10.07461701544529</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.53092387598497</v>
+        <v>40.24071553236916</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.621201458571746</v>
+        <v>2.057083454807704</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.09867397227307</v>
+        <v>16.18131137705963</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.68754541631431</v>
+        <v>13.25834497679779</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.26596048341411</v>
+        <v>18.22125941127625</v>
       </c>
       <c r="C23">
-        <v>6.859949386043132</v>
+        <v>9.926670862808729</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.1372934906544</v>
+        <v>39.3910055647864</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.621944938208321</v>
+        <v>2.059614513826953</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.990044036539166</v>
+        <v>15.90727546576715</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.72771189830684</v>
+        <v>13.25913587722469</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.70400630246914</v>
+        <v>16.87603991112758</v>
       </c>
       <c r="C24">
-        <v>6.597813517568812</v>
+        <v>9.349661604637145</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.57618878926483</v>
+        <v>36.08945926608169</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.624863818584286</v>
+        <v>2.069259853126682</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.568777786961375</v>
+        <v>14.83165366443503</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.89046854579862</v>
+        <v>13.32266630321635</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.06644666523732</v>
+        <v>15.31242274816942</v>
       </c>
       <c r="C25">
-        <v>6.300216107374585</v>
+        <v>8.69184276239173</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.74414544876901</v>
+        <v>32.33152617753217</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.628234242450706</v>
+        <v>2.079849665431797</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.095645975827601</v>
+        <v>13.58968768883237</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.08850390262307</v>
+        <v>13.503067334117</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.06178035639263</v>
+        <v>11.72506282338698</v>
       </c>
       <c r="C2">
-        <v>8.177709774227299</v>
+        <v>7.628185841436403</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.37867986216884</v>
+        <v>15.07852537706574</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.087860253907688</v>
+        <v>30.68560733371685</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.026197218924655</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.337797275380196</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.03790554211066</v>
       </c>
       <c r="K2">
-        <v>12.60432584653337</v>
+        <v>17.15486739505493</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.92522116655566</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.71571583675401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.02779693509334</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15118104716645</v>
+        <v>10.99884871513084</v>
       </c>
       <c r="C3">
-        <v>7.811399549965374</v>
+        <v>7.160662570012937</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.2542031466532</v>
+        <v>14.14794070913375</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.093445720044792</v>
+        <v>30.15559570502726</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.243930702880691</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.508020413135239</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.02542454913225</v>
       </c>
       <c r="K3">
-        <v>11.89243627401311</v>
+        <v>17.14900032440492</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.31482438948524</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.90211064473713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.21822950861264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.56070816410224</v>
+        <v>10.52638497503029</v>
       </c>
       <c r="C4">
-        <v>7.578020419415184</v>
+        <v>6.861927121801722</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.8867520275934</v>
+        <v>13.54472422932088</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.096959460879009</v>
+        <v>29.82885496735598</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.382301020879644</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.616725873543865</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.0191329326307</v>
       </c>
       <c r="K4">
-        <v>11.43378302058143</v>
+        <v>17.14620181888953</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.921128700451879</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.03514561923681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.69615859188514</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31216963448032</v>
+        <v>10.32505374795632</v>
       </c>
       <c r="C5">
-        <v>7.480856747637303</v>
+        <v>6.745167813169604</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.31335736875765</v>
+        <v>13.28980464063455</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.098413476017431</v>
+        <v>29.66004602206361</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.440122722802088</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.66481311701404</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.01055225219917</v>
       </c>
       <c r="K5">
-        <v>11.24151106215876</v>
+        <v>17.13203037765123</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.757233433170219</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.093719226158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.47789572827572</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.27042119802606</v>
+        <v>10.28861463664695</v>
       </c>
       <c r="C6">
-        <v>7.464600660049242</v>
+        <v>6.735275219847361</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.21716187151356</v>
+        <v>13.24562548013231</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.098656277903611</v>
+        <v>29.58874250068152</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.450088122644469</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.676343892909001</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.0013952178465</v>
       </c>
       <c r="K6">
-        <v>11.20926222118469</v>
+        <v>17.11356145418483</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.731250014090071</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.10369999137599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.44210963310015</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.55738837141174</v>
+        <v>10.51673988379071</v>
       </c>
       <c r="C7">
-        <v>7.576718275604858</v>
+        <v>6.886189440312982</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.87908479323026</v>
+        <v>13.53767109167107</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.096978979385215</v>
+        <v>29.70914919381515</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.383859020877281</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.626596403673041</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.997901357482</v>
       </c>
       <c r="K7">
-        <v>11.43121162094211</v>
+        <v>17.1020368858137</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.922999457555736</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.03591830389017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.69544803021783</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.75429380212836</v>
+        <v>11.47165452505477</v>
       </c>
       <c r="C8">
-        <v>8.053199266879179</v>
+        <v>7.501122463057778</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.65905128740648</v>
+        <v>14.75982653493694</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.089769232536487</v>
+        <v>30.35157163378562</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.101291410903915</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.407416588042823</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.00568417469223</v>
       </c>
       <c r="K8">
-        <v>12.36336395841231</v>
+        <v>17.09499277334915</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.72378124193227</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.77593116956576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.75660192864671</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.85440820757599</v>
+        <v>13.14449149803643</v>
       </c>
       <c r="C9">
-        <v>8.918123167850798</v>
+        <v>8.572811596300001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.62522383899887</v>
+        <v>16.90944403192228</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.076252678477473</v>
+        <v>31.80148881695985</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.582151328582176</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.995067920696408</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.06978468026494</v>
       </c>
       <c r="K9">
-        <v>14.01904473185361</v>
+        <v>17.16632507217164</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.13560443720632</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.42884511563507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.63271132863919</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.24989316366972</v>
+        <v>14.2825994447908</v>
       </c>
       <c r="C10">
-        <v>9.509076368687561</v>
+        <v>9.29055516929107</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.00019708939468</v>
+        <v>17.7714341725824</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.066630000896019</v>
+        <v>32.26605418120799</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.87142602943503</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.724069550341315</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.01373522419096</v>
       </c>
       <c r="K10">
-        <v>15.12998446779268</v>
+        <v>17.01672989541334</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.09644344757085</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.29581090140466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.6187423393929</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.85353882973098</v>
+        <v>15.10989685511913</v>
       </c>
       <c r="C11">
-        <v>9.768032389373811</v>
+        <v>9.437287047087892</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.4816362971626</v>
+        <v>13.39734985697444</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.062301647328108</v>
+        <v>27.77297518526419</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.741296054142752</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.676026908676703</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.11817524808611</v>
       </c>
       <c r="K11">
-        <v>15.61267545780716</v>
+        <v>15.3592427461108</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.65914013446833</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.26718234404517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.75765086227901</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.077718341395</v>
+        <v>15.59299414938751</v>
       </c>
       <c r="C12">
-        <v>9.864668093451941</v>
+        <v>9.387778199851002</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.03538743572415</v>
+        <v>9.683815218820024</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.060668035622248</v>
+        <v>24.14684112041792</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.030039994382627</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.665324902018759</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.453112144456806</v>
       </c>
       <c r="K12">
-        <v>15.79222867711055</v>
+        <v>14.1890128434365</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.9398481246032</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.26140443441345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.97128174756465</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.02963205937842</v>
+        <v>15.84723487424619</v>
       </c>
       <c r="C13">
-        <v>9.843919241360977</v>
+        <v>9.213263651902736</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>38.9164404464307</v>
+        <v>6.451408794336444</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.061019648605418</v>
+        <v>20.84993077128273</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.496567830077957</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.698674069978309</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.906240471014849</v>
       </c>
       <c r="K13">
-        <v>15.75370178873659</v>
+        <v>13.29504280100502</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.03326228386143</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.26241581187601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.1732655047682</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.8720701050117</v>
+        <v>15.92427223010329</v>
       </c>
       <c r="C14">
-        <v>9.776011229584579</v>
+        <v>9.039081967546656</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.52733568898311</v>
+        <v>5.000123521428129</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.062167149888113</v>
+        <v>18.77938532920315</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.525746446407011</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.744247061379619</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.59205118646247</v>
       </c>
       <c r="K14">
-        <v>15.62751195601498</v>
+        <v>12.8372193427246</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.01674467254582</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.26660271321865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.948305525600158</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.77498713195666</v>
+        <v>15.89155900692063</v>
       </c>
       <c r="C15">
-        <v>9.73422999382908</v>
+        <v>8.976452225328108</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.28807121163522</v>
+        <v>4.849138874914267</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.062870685517147</v>
+        <v>18.32127689825423</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.764213686468193</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.770466964504136</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.531202830241329</v>
       </c>
       <c r="K15">
-        <v>15.54979731587438</v>
+        <v>12.7620853265913</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.97321323454332</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.26984119429382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.633960762900722</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.2098224655172</v>
+        <v>15.39453630276789</v>
       </c>
       <c r="C16">
-        <v>9.491953614200343</v>
+        <v>8.716734155950077</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>36.90233991090207</v>
+        <v>4.8016072921028</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.06691372204111</v>
+        <v>18.72532247466792</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.560775698870164</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.884574416116837</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.662971786925203</v>
       </c>
       <c r="K16">
-        <v>15.09798537773155</v>
+        <v>13.00316139023571</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.57013671560623</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.29836388020135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.44743781205473</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.85517960900185</v>
+        <v>14.96013021617509</v>
       </c>
       <c r="C17">
-        <v>9.340789192676478</v>
+        <v>8.611565167763741</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.03878869189704</v>
+        <v>5.304152409822566</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.069405462143182</v>
+        <v>20.05780897981376</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.826604876513023</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.949328180381492</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.918689989927323</v>
       </c>
       <c r="K17">
-        <v>14.81502185386244</v>
+        <v>13.40100107768886</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.26320140826852</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.32436226162057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.96632719862269</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.6482599023768</v>
+        <v>14.54376453405379</v>
       </c>
       <c r="C18">
-        <v>9.252913949330443</v>
+        <v>8.615807521378976</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.53699460243631</v>
+        <v>7.463062820937348</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.070843367853747</v>
+        <v>22.61918166559</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.569732094091512</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.964137748590308</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.363163019223489</v>
       </c>
       <c r="K18">
-        <v>14.65013129495275</v>
+        <v>14.11137342728919</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.00857082864853</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.34228743510391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.23415995437825</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.57769362900665</v>
+        <v>14.17226186614943</v>
       </c>
       <c r="C19">
-        <v>9.223001608703195</v>
+        <v>8.750707963450209</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.36620488970263</v>
+        <v>11.18962928630581</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.071331075567928</v>
+        <v>26.05082851575809</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.059606543581193</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.951342748481315</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.95666277927565</v>
       </c>
       <c r="K19">
-        <v>14.59393435806224</v>
+        <v>15.11984774415735</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.82908104232126</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.34885276085178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.16838744296563</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.89323556147403</v>
+        <v>13.97763506263751</v>
       </c>
       <c r="C20">
-        <v>9.356977173912423</v>
+        <v>9.16759009847625</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.13123976744861</v>
+        <v>17.51563172418242</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.069139734515942</v>
+        <v>31.78894185020348</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.781087628799623</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.826416039801211</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.96083178813312</v>
       </c>
       <c r="K20">
-        <v>14.8453648388602</v>
+        <v>16.91646577656321</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.86178160720702</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.32128374833405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.35913278464767</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.91846887465923</v>
+        <v>14.75290042117854</v>
       </c>
       <c r="C21">
-        <v>9.795996137426407</v>
+        <v>9.720680795025869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.64181730079569</v>
+        <v>19.0082858316745</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.061829966949238</v>
+        <v>33.05248581740511</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.062255651081304</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.608563495658009</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.09142965756733</v>
       </c>
       <c r="K21">
-        <v>15.66466436836271</v>
+        <v>17.12209008311057</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.54155120336653</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.26523160245562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.49192510635123</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.56286489520643</v>
+        <v>15.26367064447153</v>
       </c>
       <c r="C22">
-        <v>10.07461701544529</v>
+        <v>10.03634013999403</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.24071553236916</v>
+        <v>19.66834442698042</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.057083454807704</v>
+        <v>33.73160673391152</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.232390267785695</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.542218524746855</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.15279003650699</v>
       </c>
       <c r="K22">
-        <v>16.18131137705963</v>
+        <v>17.21721652223327</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.97294770894152</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.25834497679779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.06860498375498</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.22125941127625</v>
+        <v>14.99918221315189</v>
       </c>
       <c r="C23">
-        <v>9.926670862808729</v>
+        <v>9.84640202724478</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.3910055647864</v>
+        <v>19.32168073506918</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.059614513826953</v>
+        <v>33.49068350409468</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.142602167458945</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.525598774846117</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.14337356828355</v>
       </c>
       <c r="K23">
-        <v>15.90727546576715</v>
+        <v>17.21565337151437</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.74056638893522</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.25913587722469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.76104217332083</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.87603991112758</v>
+        <v>13.94221069182023</v>
       </c>
       <c r="C24">
-        <v>9.349661604637145</v>
+        <v>9.140846972687161</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.08945926608169</v>
+        <v>17.94878843523491</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.069259853126682</v>
+        <v>32.38737825370643</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.794839219856862</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.804839416319339</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.07527905137935</v>
       </c>
       <c r="K24">
-        <v>14.83165366443503</v>
+        <v>17.13698310413006</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.83152827746575</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.32266630321635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.5527233999005</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31242274816942</v>
+        <v>12.70394245649943</v>
       </c>
       <c r="C25">
-        <v>8.69184276239173</v>
+        <v>8.332126277406445</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.33152617753217</v>
+        <v>16.34948649095808</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.079849665431797</v>
+        <v>31.21195336016871</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.720082056025284</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.120295019603984</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.01402457043718</v>
       </c>
       <c r="K25">
-        <v>13.58968768883237</v>
+        <v>17.06854826589116</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.77651566908693</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.503067334117</v>
+        <v>15.15039789920523</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.72506282338698</v>
+        <v>11.73763345219081</v>
       </c>
       <c r="C2">
-        <v>7.628185841436403</v>
+        <v>7.930456693061455</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.07852537706574</v>
+        <v>15.12887018939462</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>30.68560733371685</v>
+        <v>27.47617156735737</v>
       </c>
       <c r="H2">
-        <v>2.026197218924655</v>
+        <v>1.946263241916575</v>
       </c>
       <c r="I2">
-        <v>3.337797275380196</v>
+        <v>3.144432920314074</v>
       </c>
       <c r="J2">
-        <v>11.03790554211066</v>
+        <v>10.64585645519411</v>
       </c>
       <c r="K2">
-        <v>17.15486739505493</v>
+        <v>15.82581450094101</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.93057163165499</v>
       </c>
       <c r="M2">
-        <v>10.92522116655566</v>
+        <v>10.48232307617352</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.02779693509334</v>
+        <v>11.06130089602065</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.11353465956303</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.99884871513084</v>
+        <v>11.04610122283369</v>
       </c>
       <c r="C3">
-        <v>7.160662570012937</v>
+        <v>7.380080619279977</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.14794070913375</v>
+        <v>14.22352552963997</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>30.15559570502726</v>
+        <v>27.3136427875765</v>
       </c>
       <c r="H3">
-        <v>2.243930702880691</v>
+        <v>2.152716328143521</v>
       </c>
       <c r="I3">
-        <v>3.508020413135239</v>
+        <v>3.290106071639511</v>
       </c>
       <c r="J3">
-        <v>11.02542454913225</v>
+        <v>10.64767988841379</v>
       </c>
       <c r="K3">
-        <v>17.14900032440492</v>
+        <v>15.92922921361115</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.08297812013665</v>
       </c>
       <c r="M3">
-        <v>10.31482438948524</v>
+        <v>10.51234936629984</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.21822950861264</v>
+        <v>10.44687213516341</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.30188948824307</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.52638497503029</v>
+        <v>10.59684453714991</v>
       </c>
       <c r="C4">
-        <v>6.861927121801722</v>
+        <v>7.026674007472847</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.54472422932088</v>
+        <v>13.63722999416362</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>29.82885496735598</v>
+        <v>27.21821215381165</v>
       </c>
       <c r="H4">
-        <v>2.382301020879644</v>
+        <v>2.283989380765775</v>
       </c>
       <c r="I4">
-        <v>3.616725873543865</v>
+        <v>3.383499395616395</v>
       </c>
       <c r="J4">
-        <v>11.0191329326307</v>
+        <v>10.64835333280634</v>
       </c>
       <c r="K4">
-        <v>17.14620181888953</v>
+        <v>15.99285789167353</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.17598765499868</v>
       </c>
       <c r="M4">
-        <v>9.921128700451879</v>
+        <v>10.54577161488121</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.69615859188514</v>
+        <v>10.05069899718654</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.77843546748384</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.32505374795632</v>
+        <v>10.40573566561566</v>
       </c>
       <c r="C5">
-        <v>6.745167813169604</v>
+        <v>6.88621414879297</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.28980464063455</v>
+        <v>13.38971791163767</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>29.66004602206361</v>
+        <v>27.1503374403363</v>
       </c>
       <c r="H5">
-        <v>2.440122722802088</v>
+        <v>2.338846389915632</v>
       </c>
       <c r="I5">
-        <v>3.66481311701404</v>
+        <v>3.425720798475101</v>
       </c>
       <c r="J5">
-        <v>11.01055225219917</v>
+        <v>10.64315145001599</v>
       </c>
       <c r="K5">
-        <v>17.13203037765123</v>
+        <v>16.00814900425652</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.2040229096708</v>
       </c>
       <c r="M5">
-        <v>9.757233433170219</v>
+        <v>10.55681029027689</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.47789572827572</v>
+        <v>9.885658447116901</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.55950088025078</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.28861463664695</v>
+        <v>10.37134223260742</v>
       </c>
       <c r="C6">
-        <v>6.735275219847361</v>
+        <v>6.871762484842011</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.24562548013231</v>
+        <v>13.34695213686453</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>29.58874250068152</v>
+        <v>27.10253934244478</v>
       </c>
       <c r="H6">
-        <v>2.450088122644469</v>
+        <v>2.348283392245373</v>
       </c>
       <c r="I6">
-        <v>3.676343892909001</v>
+        <v>3.436853775006942</v>
       </c>
       <c r="J6">
-        <v>11.0013952178465</v>
+        <v>10.63573746644548</v>
       </c>
       <c r="K6">
-        <v>17.11356145418483</v>
+        <v>15.99769669943182</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.19681694098388</v>
       </c>
       <c r="M6">
-        <v>9.731250014090071</v>
+        <v>10.55116779870555</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.44210963310015</v>
+        <v>9.859302305394142</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.52349337564642</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.51673988379071</v>
+        <v>10.59010762074086</v>
       </c>
       <c r="C7">
-        <v>6.886189440312982</v>
+        <v>7.037758001144333</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.53767109167107</v>
+        <v>13.63091101351932</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.70914919381515</v>
+        <v>27.15305385204567</v>
       </c>
       <c r="H7">
-        <v>2.383859020877281</v>
+        <v>2.28593156633532</v>
       </c>
       <c r="I7">
-        <v>3.626596403673041</v>
+        <v>3.395548175045433</v>
       </c>
       <c r="J7">
-        <v>10.997901357482</v>
+        <v>10.58811034060122</v>
       </c>
       <c r="K7">
-        <v>17.1020368858137</v>
+        <v>15.94073428560931</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.12958265082033</v>
       </c>
       <c r="M7">
-        <v>9.922999457555736</v>
+        <v>10.51372084169756</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.69544803021783</v>
+        <v>10.04960979542168</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.77630192424401</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.47165452505477</v>
+        <v>11.50285919056694</v>
       </c>
       <c r="C8">
-        <v>7.501122463057778</v>
+        <v>7.738859476235714</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.75982653493694</v>
+        <v>14.81988093905774</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>30.35157163378562</v>
+        <v>27.40807243990232</v>
       </c>
       <c r="H8">
-        <v>2.101291410903915</v>
+        <v>2.018967641360043</v>
       </c>
       <c r="I8">
-        <v>3.407416588042823</v>
+        <v>3.209849375989669</v>
       </c>
       <c r="J8">
-        <v>11.00568417469223</v>
+        <v>10.48622138305597</v>
       </c>
       <c r="K8">
-        <v>17.09499277334915</v>
+        <v>15.76049544360647</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.89892834463639</v>
       </c>
       <c r="M8">
-        <v>10.72378124193227</v>
+        <v>10.4203324793733</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.75660192864671</v>
+        <v>10.85030949912499</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.83781426912315</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.14449149803643</v>
+        <v>13.09875317325399</v>
       </c>
       <c r="C9">
-        <v>8.572811596300001</v>
+        <v>8.993982616180173</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.90944403192228</v>
+        <v>16.91327637001751</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>31.80148881695985</v>
+        <v>27.99184677222225</v>
       </c>
       <c r="H9">
-        <v>1.582151328582176</v>
+        <v>1.592852940536255</v>
       </c>
       <c r="I9">
-        <v>2.995067920696408</v>
+        <v>2.856307818852482</v>
       </c>
       <c r="J9">
-        <v>11.06978468026494</v>
+        <v>10.46473904730141</v>
       </c>
       <c r="K9">
-        <v>17.16632507217164</v>
+        <v>15.53187966419383</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.54739960409662</v>
       </c>
       <c r="M9">
-        <v>12.13560443720632</v>
+        <v>10.43924940831107</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.63271132863919</v>
+        <v>12.27116140565159</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.71804226701009</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.2825994447908</v>
+        <v>14.20170681452955</v>
       </c>
       <c r="C10">
-        <v>9.29055516929107</v>
+        <v>9.759370440525064</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.7714341725824</v>
+        <v>17.74414884851749</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>32.26605418120799</v>
+        <v>28.1846439033428</v>
       </c>
       <c r="H10">
-        <v>1.87142602943503</v>
+        <v>1.903818854652026</v>
       </c>
       <c r="I10">
-        <v>2.724069550341315</v>
+        <v>2.630707935255094</v>
       </c>
       <c r="J10">
-        <v>11.01373522419096</v>
+        <v>10.14225851933414</v>
       </c>
       <c r="K10">
-        <v>17.01672989541334</v>
+        <v>15.12944893452141</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.12091598083319</v>
       </c>
       <c r="M10">
-        <v>13.09644344757085</v>
+        <v>10.3311604143362</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.6187423393929</v>
+        <v>13.22370049817989</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.69920991308231</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.10989685511913</v>
+        <v>15.06979759015877</v>
       </c>
       <c r="C11">
-        <v>9.437287047087892</v>
+        <v>9.679252188839623</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.39734985697444</v>
+        <v>13.38753432080057</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>27.77297518526419</v>
+        <v>24.83322154629087</v>
       </c>
       <c r="H11">
-        <v>2.741296054142752</v>
+        <v>2.757613205764844</v>
       </c>
       <c r="I11">
-        <v>2.676026908676703</v>
+        <v>2.60090054495886</v>
       </c>
       <c r="J11">
-        <v>10.11817524808611</v>
+        <v>9.127931267429416</v>
       </c>
       <c r="K11">
-        <v>15.3592427461108</v>
+        <v>13.7450249985601</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.13859373652121</v>
       </c>
       <c r="M11">
-        <v>13.65914013446833</v>
+        <v>9.24758847111103</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.75765086227901</v>
+        <v>13.73923281111114</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.81360986177636</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.59299414938751</v>
+        <v>15.58818556178974</v>
       </c>
       <c r="C12">
-        <v>9.387778199851002</v>
+        <v>9.46094245555425</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.683815218820024</v>
+        <v>9.695346908750594</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.14684112041792</v>
+        <v>22.02103028662088</v>
       </c>
       <c r="H12">
-        <v>4.030039994382627</v>
+        <v>4.039940248711281</v>
       </c>
       <c r="I12">
-        <v>2.665324902018759</v>
+        <v>2.592683452593262</v>
       </c>
       <c r="J12">
-        <v>9.453112144456806</v>
+        <v>8.635547797935546</v>
       </c>
       <c r="K12">
-        <v>14.1890128434365</v>
+        <v>12.91164643048384</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.60879629705967</v>
       </c>
       <c r="M12">
-        <v>13.9398481246032</v>
+        <v>8.519458402362186</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.97128174756465</v>
+        <v>13.98754040493954</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.0109958978051</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.84723487424619</v>
+        <v>15.87247547865004</v>
       </c>
       <c r="C13">
-        <v>9.213263651902736</v>
+        <v>9.165261752479374</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.451408794336444</v>
+        <v>6.497533160559327</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>20.84993077128273</v>
+        <v>19.27605563265806</v>
       </c>
       <c r="H13">
-        <v>5.496567830077957</v>
+        <v>5.488732300723081</v>
       </c>
       <c r="I13">
-        <v>2.698674069978309</v>
+        <v>2.618443447950347</v>
       </c>
       <c r="J13">
-        <v>8.906240471014849</v>
+        <v>8.430452952784229</v>
       </c>
       <c r="K13">
-        <v>13.29504280100502</v>
+        <v>12.41056963569405</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.32150001685596</v>
       </c>
       <c r="M13">
-        <v>14.03326228386143</v>
+        <v>8.025178977375234</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.1732655047682</v>
+        <v>14.06123077445646</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.17176906832836</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.92427223010329</v>
+        <v>15.96858354930568</v>
       </c>
       <c r="C14">
-        <v>9.039081967546656</v>
+        <v>8.924401725244978</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.000123521428129</v>
+        <v>5.079394116979143</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>18.77938532920315</v>
+        <v>17.47316780253428</v>
       </c>
       <c r="H14">
-        <v>6.525746446407011</v>
+        <v>6.517617405675022</v>
       </c>
       <c r="I14">
-        <v>2.744247061379619</v>
+        <v>2.655051260138853</v>
       </c>
       <c r="J14">
-        <v>8.59205118646247</v>
+        <v>8.368764385012351</v>
       </c>
       <c r="K14">
-        <v>12.8372193427246</v>
+        <v>12.20878383446592</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.21419301472223</v>
       </c>
       <c r="M14">
-        <v>14.01674467254582</v>
+        <v>7.801045106748343</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.948305525600158</v>
+        <v>14.03593047752484</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.937214203185414</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.89155900692063</v>
+        <v>15.93994912172335</v>
       </c>
       <c r="C15">
-        <v>8.976452225328108</v>
+        <v>8.852823667427776</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.849138874914267</v>
+        <v>4.937976834228169</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>18.32127689825423</v>
+        <v>17.05163255722981</v>
       </c>
       <c r="H15">
-        <v>6.764213686468193</v>
+        <v>6.755652748743322</v>
       </c>
       <c r="I15">
-        <v>2.770466964504136</v>
+        <v>2.677657547215571</v>
       </c>
       <c r="J15">
-        <v>8.531202830241329</v>
+        <v>8.375508916076971</v>
       </c>
       <c r="K15">
-        <v>12.7620853265913</v>
+        <v>12.19564662342944</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.20662106742361</v>
       </c>
       <c r="M15">
-        <v>13.97321323454332</v>
+        <v>7.778210792695455</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.633960762900722</v>
+        <v>13.99259182239618</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.620681080613217</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.39453630276789</v>
+        <v>15.43758498193595</v>
       </c>
       <c r="C16">
-        <v>8.716734155950077</v>
+        <v>8.661153626997111</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.8016072921028</v>
+        <v>4.925093823345543</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>18.72532247466792</v>
+        <v>17.27896269541393</v>
       </c>
       <c r="H16">
-        <v>6.560775698870164</v>
+        <v>6.548190361637437</v>
       </c>
       <c r="I16">
-        <v>2.884574416116837</v>
+        <v>2.770716896659957</v>
       </c>
       <c r="J16">
-        <v>8.662971786925203</v>
+        <v>8.615711691222879</v>
       </c>
       <c r="K16">
-        <v>13.00316139023571</v>
+        <v>12.47977798928967</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.35261371410904</v>
       </c>
       <c r="M16">
-        <v>13.57013671560623</v>
+        <v>8.024122914664588</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.44743781205473</v>
+        <v>13.6120622976811</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.436706642483349</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.96013021617509</v>
+        <v>14.99149381126731</v>
       </c>
       <c r="C17">
-        <v>8.611565167763741</v>
+        <v>8.633884596069793</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.304152409822566</v>
+        <v>5.429067745203075</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>20.05780897981376</v>
+        <v>18.34966136071955</v>
       </c>
       <c r="H17">
-        <v>5.826604876513023</v>
+        <v>5.810157570281231</v>
       </c>
       <c r="I17">
-        <v>2.949328180381492</v>
+        <v>2.824673195476427</v>
       </c>
       <c r="J17">
-        <v>8.918689989927323</v>
+        <v>8.87909537136135</v>
       </c>
       <c r="K17">
-        <v>13.40100107768886</v>
+        <v>12.81214528020684</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.55331244823864</v>
       </c>
       <c r="M17">
-        <v>13.26320140826852</v>
+        <v>8.311281567185684</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.96632719862269</v>
+        <v>13.32474997338919</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.963314740327432</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.54376453405379</v>
+        <v>14.55225506493635</v>
       </c>
       <c r="C18">
-        <v>8.615807521378976</v>
+        <v>8.753583429180535</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.463062820937348</v>
+        <v>7.545841524695413</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>22.61918166559</v>
+        <v>20.40454364475192</v>
       </c>
       <c r="H18">
-        <v>4.569732094091512</v>
+        <v>4.548282546977765</v>
       </c>
       <c r="I18">
-        <v>2.964137748590308</v>
+        <v>2.834276868718912</v>
       </c>
       <c r="J18">
-        <v>9.363163019223489</v>
+        <v>9.248132200773924</v>
       </c>
       <c r="K18">
-        <v>14.11137342728919</v>
+        <v>13.33280994349462</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.90539045872247</v>
       </c>
       <c r="M18">
-        <v>13.00857082864853</v>
+        <v>8.747419784049169</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.23415995437825</v>
+        <v>13.09323467129367</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.29091176254728</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17226186614943</v>
+        <v>14.1502499477597</v>
       </c>
       <c r="C19">
-        <v>8.750707963450209</v>
+        <v>9.028714917262832</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.18962928630581</v>
+        <v>11.22542707550662</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>26.05082851575809</v>
+        <v>23.12842990918084</v>
       </c>
       <c r="H19">
-        <v>3.059606543581193</v>
+        <v>3.030552872389939</v>
       </c>
       <c r="I19">
-        <v>2.951342748481315</v>
+        <v>2.825906187092739</v>
       </c>
       <c r="J19">
-        <v>9.95666277927565</v>
+        <v>9.700692794710333</v>
       </c>
       <c r="K19">
-        <v>15.11984774415735</v>
+        <v>14.03532497568175</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.4011948362665</v>
       </c>
       <c r="M19">
-        <v>12.82908104232126</v>
+        <v>9.326776620242137</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.16838744296563</v>
+        <v>12.93766152273738</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.23748070943457</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.97763506263751</v>
+        <v>13.90223566827013</v>
       </c>
       <c r="C20">
-        <v>9.16759009847625</v>
+        <v>9.650170858964181</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.51563172418242</v>
+        <v>17.49678808385538</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>31.78894185020348</v>
+        <v>27.70368604830951</v>
       </c>
       <c r="H20">
-        <v>1.781087628799623</v>
+        <v>1.820633415276651</v>
       </c>
       <c r="I20">
-        <v>2.826416039801211</v>
+        <v>2.724721850079688</v>
       </c>
       <c r="J20">
-        <v>10.96083178813312</v>
+        <v>10.31248546211493</v>
       </c>
       <c r="K20">
-        <v>16.91646577656321</v>
+        <v>15.18480460536578</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.19526824366936</v>
       </c>
       <c r="M20">
-        <v>12.86178160720702</v>
+        <v>10.3155399745276</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.35913278464767</v>
+        <v>12.99682189201688</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.44336036758396</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.75290042117854</v>
+        <v>14.67388126461356</v>
       </c>
       <c r="C21">
-        <v>9.720680795025869</v>
+        <v>10.10807830399356</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.0082858316745</v>
+        <v>18.96653794295969</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>33.05248581740511</v>
+        <v>29.27404651080407</v>
       </c>
       <c r="H21">
-        <v>2.062255651081304</v>
+        <v>2.078256010792348</v>
       </c>
       <c r="I21">
-        <v>2.608563495658009</v>
+        <v>2.55246520990784</v>
       </c>
       <c r="J21">
-        <v>11.09142965756733</v>
+        <v>9.521930801674976</v>
       </c>
       <c r="K21">
-        <v>17.12209008311057</v>
+        <v>14.80774689966072</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.83470780204448</v>
       </c>
       <c r="M21">
-        <v>13.54155120336653</v>
+        <v>10.1848123516802</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.49192510635123</v>
+        <v>13.63974488415983</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.55838066521078</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.26367064447153</v>
+        <v>15.18643121582096</v>
       </c>
       <c r="C22">
-        <v>10.03634013999403</v>
+        <v>10.34681127063901</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.66834442698042</v>
+        <v>19.6147491103181</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>33.73160673391152</v>
+        <v>30.27339818412061</v>
       </c>
       <c r="H22">
-        <v>2.232390267785695</v>
+        <v>2.233368427545808</v>
       </c>
       <c r="I22">
-        <v>2.542218524746855</v>
+        <v>2.58832554873419</v>
       </c>
       <c r="J22">
-        <v>11.15279003650699</v>
+        <v>9.018833819932352</v>
       </c>
       <c r="K22">
-        <v>17.21721652223327</v>
+        <v>14.51588045819985</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.5783450855287</v>
       </c>
       <c r="M22">
-        <v>13.97294770894152</v>
+        <v>10.06519787437139</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.06860498375498</v>
+        <v>14.04496187759365</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.12205203554425</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.99918221315189</v>
+        <v>14.91613969521708</v>
       </c>
       <c r="C23">
-        <v>9.84640202724478</v>
+        <v>10.22093220790835</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.32168073506918</v>
+        <v>19.273038801299</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>33.49068350409468</v>
+        <v>29.74566787334714</v>
       </c>
       <c r="H23">
-        <v>2.142602167458945</v>
+        <v>2.152291143362184</v>
       </c>
       <c r="I23">
-        <v>2.525598774846117</v>
+        <v>2.529168849691939</v>
       </c>
       <c r="J23">
-        <v>11.14337356828355</v>
+        <v>9.372311288359205</v>
       </c>
       <c r="K23">
-        <v>17.21565337151437</v>
+        <v>14.74764695275151</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.76382847621184</v>
       </c>
       <c r="M23">
-        <v>13.74056638893522</v>
+        <v>10.19465523015872</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.76104217332083</v>
+        <v>13.83156724566541</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.82387757133002</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.94221069182023</v>
+        <v>13.86238691264475</v>
       </c>
       <c r="C24">
-        <v>9.140846972687161</v>
+        <v>9.64125252742836</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.94878843523491</v>
+        <v>17.92692389958895</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>32.38737825370643</v>
+        <v>28.18934175316114</v>
       </c>
       <c r="H24">
-        <v>1.794839219856862</v>
+        <v>1.834175545663792</v>
       </c>
       <c r="I24">
-        <v>2.804839416319339</v>
+        <v>2.700042133733274</v>
       </c>
       <c r="J24">
-        <v>11.07527905137935</v>
+        <v>10.4058768175506</v>
       </c>
       <c r="K24">
-        <v>17.13698310413006</v>
+        <v>15.34912262256584</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.31375045812583</v>
       </c>
       <c r="M24">
-        <v>12.83152827746575</v>
+        <v>10.44728092357094</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.5527233999005</v>
+        <v>12.96968416642199</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.63874043143652</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.70394245649943</v>
+        <v>12.67652152400002</v>
       </c>
       <c r="C25">
-        <v>8.332126277406445</v>
+        <v>8.7176265286835</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.34948649095808</v>
+        <v>16.36789654373593</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>31.21195336016871</v>
+        <v>27.60958712044412</v>
       </c>
       <c r="H25">
-        <v>1.720082056025284</v>
+        <v>1.657249814589576</v>
       </c>
       <c r="I25">
-        <v>3.120295019603984</v>
+        <v>2.96782175151571</v>
       </c>
       <c r="J25">
-        <v>11.01402457043718</v>
+        <v>10.49895023970082</v>
       </c>
       <c r="K25">
-        <v>17.06854826589116</v>
+        <v>15.55632743750538</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.61467392308244</v>
       </c>
       <c r="M25">
-        <v>11.77651566908693</v>
+        <v>10.39262924399729</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.15039789920523</v>
+        <v>11.91201211941102</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.23572355799392</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
